--- a/backend/output.xlsx
+++ b/backend/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -22,40 +22,72 @@
     <t>Title</t>
   </si>
   <si>
-    <t>1.1.What criteria can be used to determine the relevance of sources in a marketing review?</t>
-  </si>
-  <si>
-    <t>1.2.How can the timeliness of sources be assessed in the context of a marketing review?</t>
-  </si>
-  <si>
-    <t>1.3.What are the potential consequences of including outdated or irrelevant sources in a marketing review?</t>
-  </si>
-  <si>
-    <t>1.4.123</t>
-  </si>
-  <si>
-    <t>2.1.Which research methods are used?</t>
-  </si>
-  <si>
-    <t>2.2.The authors of the research is who?</t>
-  </si>
-  <si>
-    <t>Enhancing the capacity of data collection tools to detect, prepare and respond to emerging CBRNe threats through engaging with end-users</t>
-  </si>
-  <si>
-    <t>Enterprise Financial Risk Early Warning Using BP Neural Network under Internet of Things and Rough Set Theory</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Ha noi 2</t>
-  </si>
-  <si>
-    <t>The research methods used in the study include the selection and application of the latest diffusion MRI analysis methods to study white matter in individuals with chronic low back pain [Page no. 1]. These methods involve the analysis of longitudinal diffusion MRI data of the cerebral white matter, which includes acquiring images at multiple time points (0, 2, and 4 months) using HARDI (High Angular Resolution Diffusion Imaging) techniques [Page no. 1].</t>
-  </si>
-  <si>
-    <t>The authors of the research are Paul Bautin and Pascal Tétreault [Page 1].</t>
+    <t>1.1.List all methods are used?</t>
+  </si>
+  <si>
+    <t>2.1.List all authors</t>
+  </si>
+  <si>
+    <t>Fibromyalgia is associated with hypersensitivity but not with abnormal pain 
+modulation: evidence from QST trials and spinal fMRI.</t>
+  </si>
+  <si>
+    <t>Three weeks of exercise therapy altered brain functional connectivity in 
+fibromyalgia inpatients.</t>
+  </si>
+  <si>
+    <t>Disentangling the neurological basis of chronic ocular pain using clinical, 
+self-report, and brain imaging data: use of K-means clustering to explore 
+patient phenotypes.</t>
+  </si>
+  <si>
+    <t>Functional connectivity of the visual cortex in chronic migraine before and 
+after medication withdrawal therapy.</t>
+  </si>
+  <si>
+    <t>Hotspots and Trends in Research on Treating Pain with Electroacupuncture: A 
+Bibliometric and Visualization Analysis from 1994 to 2022.</t>
+  </si>
+  <si>
+    <t>Neural correlates of central pain sensitization in chronic low back pain: a 
+resting-state fMRI study.</t>
+  </si>
+  <si>
+    <t>The methods used in the study include the selection and application of the latest methods of diffusion MRI analysis [Page no. 1]. Additionally, the study mentions the use of longitudinal MRI data acquisition at multiple time points (0, 2, and 4 months) [Page no. 1].</t>
+  </si>
+  <si>
+    <t>The methods used in the search results include:
+1. Tract-based spatial statistics (TBSS) analysis [Page no. 17]
+2. Ensemble average diffusion propagator [Page no. 18]
+3. Reduced acquisitions (AMURA) [Page no. 18]
+4. High angular resolution diffusion imaging (HARDI) [Page no. 18]
+5. Multi-shell diffusion MRI [Page no. 18]
+6. Functional magnetic resonance imaging (fMRI) [Page no. 3]
+7. Resting-state fMRI (rs-fMRI) [Page no. 3]
+Please note that these are the methods mentioned in the search results and may not be an exhaustive list of all methods used in the field of study.</t>
+  </si>
+  <si>
+    <t>The methods used in the study include: 
+1. Nonlinear registration to transform the subject's native space into standard space [Page no. 4]
+2. FMRIB Automated Segmentation Tool (FAST) for segmenting brain tissue types [Page no. 4]
+3. FSL linear registration tool (FLIRT) for transforming grey matter and white matter masks into standard space [Page no. 4]
+4. Probabilistic tractography using FDT software [Page no. 5]
+5. Tract-based spatial statistics (TBSS) for voxel-wise statistical analysis of FA data [Page no. 4]
+6. Permutation methods for determining the significance of the contrast between patients and healthy controls [Page no. 4]
+7. ANOVA for comparing FA values across different groups [Page no. 5]
+8. Longitudinal multi-modal brain imaging and pain assessment [Page no. 7]</t>
+  </si>
+  <si>
+    <t>The methods used in the studies included Tract-Based Spatial Statistics (TBSS), Voxel-Based Morphometry (VBM), Tractography, and whole-brain analysis. [Page 3, Page 4]</t>
+  </si>
+  <si>
+    <t>The search results do not provide the names of any authors.</t>
+  </si>
+  <si>
+    <t>The authors mentioned in the search results are Alexander Lerner, Yuan K, Qin W, Liu P, Coppola G, Di Renzo A, Petolicchio B, Tu Y, Zeng F, Lan L, Xue T, Zhao L, Tessitore A, Russo A, Giordano A, and Skorobogatykh K. [1][17][20]</t>
+  </si>
+  <si>
+    <t>The authors mentioned in the search results are Mansour et al. [Page no. 15], Mansour et al. [Page no. 5], Mansour et al. [Page no. 3], Mansour et al. [Page no. 11], Mansour et al. [Page no. 12], and Mansour et al. [Page no. 1].</t>
   </si>
 </sst>
 </file>
@@ -413,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +464,73 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
